--- a/gd/主界面/loading文案.xlsx
+++ b/gd/主界面/loading文案.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,30 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>默认组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剧情副本组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>试炼组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通天塔组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会任务副本组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PVP组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三星通关每个章节的全部副本都可以领取宝箱奖励哦！</t>
@@ -64,143 +64,135 @@
   </si>
   <si>
     <t>一些没有用的材料可以在背包里卖掉换钱。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通天塔每月1号都会刷新进度，刷新后可重新进行挑战。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通天塔每过5层就会给一个阶段性奖励，快来挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通天塔掉落的XXXX可以在通天塔商店兑换奖励。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>挑战每座塔的层数越高，难度也就越大，同时阶段奖励也会越好。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>清楚的了解boss的技能和弱点，能够帮助你更好的战胜它。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>运用克制boss的宠物，能够帮助你更好的战胜它。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合理的运用照妖镜，集火与换怪，能够让你通关到更高层。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>米达斯宫能够产出大量金币，快来挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>难度越高获得的金币也就越多，加油挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每周日米达斯宫和至福乐土都会开放，快来挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>至福乐土能够产出大量经验药水，快来挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>难度越高获得的经验药水也就越多，加油挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每周日米达斯宫和至福乐土都会开放，快来挑战吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>集齐宠物碎片能够合成宠物。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>商店根据顾客的等级，商品的品质也会有所不同。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吃经验药是提升宠物等级的最快方法。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备可以打造，打造能够大幅提升装备战力。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物有白、绿、蓝、紫、橙、红六个品质，通过进化能够达到更高品质。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备有白、绿、蓝、紫、橙、红六个品质，通过打造能够达到更高品质。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分解掉没有用处的装备或者宠物，变废为宝。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>纹章有白、绿、蓝、紫、橙、红六个品质，通过合成能够达到更高品质。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>记得给宠物穿戴装备，真的会变强哦！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>纹章和有些材料能够通过合成获得更高品质的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>商店每天固定时间刷新商品，常去逛逛~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>还在独自战斗？快加入公会，寻找一起并肩作战的小伙伴吧~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>参与公会活动，获得的贡献值能够在公会商店中兑换各种道具。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>将一些空闲的宠物派去大冒险，会有意想不到的收获哦~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>要尝试满足大冒险的额外奖励获得条件，才能获得丰厚的奖励。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性互克：木&gt;水&gt;火&gt;木，光暗互克。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BOSS的弱点有的有血条，能够被打掉；有的没有血条，不能被打掉。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中适当换怪，可以带来避免怪物死亡、积攒大招等等好处哦~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>打掉弱点多数情况是好的，但是也有例外哟！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色及以上品质的装备可以镶嵌纹章，9种纹章提升的属性不同，选择适合宠物的才是明智之举。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>竞技场中战斗需要消耗竞技点数，每次消耗1点。竞技点数每小时恢复1点。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>玩家必须设置自己的防御阵容，抵御其他玩家的挑战，防守失败也会扣分的哦~</t>
@@ -209,9 +201,6 @@
     <t>若对匹配的对手不满意，可以通过花费金币刷新对手。</t>
   </si>
   <si>
-    <t>竞技场中战斗采取5V5的方式，战斗过程中可以手动施放大招技能、集火敌人，但不能使用照妖镜。</t>
-  </si>
-  <si>
     <t>竞技成功时，会获得荣誉点奖励，荣誉点可以用来在竞技商店中换取物品。</t>
   </si>
   <si>
@@ -219,7 +208,7 @@
   </si>
   <si>
     <t>复用剧情副本组的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>现在不是没有领取体力， 只有透过任务吗？</t>
@@ -247,48 +236,71 @@
   </si>
   <si>
     <t>宠物不给力？尝试一下召唤吧~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗前长按头像查看敌方信息，合理布置宠物。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>集火操作能够集中我方火力，快速攻下敌方小怪或者弱点目标。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缺点材料？去背包开宝箱试试运气~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片不够？试试分解宠物，就能够获得万能碎片。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每日限时领取体力时间为12点，18点，21点。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日常任务中每日共有三次免费领取活力的机会：12点，18点，21点，可不要错过哦！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>任务是获得角色经验最快的途径哦！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9种纹章提升的属性不同，选择适合宠物的才是明智之举。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色及以上品质的装备可以镶嵌纹章。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗过程中可以手动施放大招技能、集火敌人，但不能使用照妖镜。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场中战斗采取5V5的方式。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -360,16 +372,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="198" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="198" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -693,13 +706,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -711,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -719,12 +732,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -753,26 +766,26 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -782,18 +795,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -805,18 +818,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -827,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -835,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -843,244 +856,252 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="2">
+    <row r="30" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="2">
+    <row r="31" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="2">
+    <row r="32" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="2">
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="6">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6">
         <v>6</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="2">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="2">
         <v>9</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="2">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="3" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1088,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2">
         <v>2</v>
       </c>
@@ -1104,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="2">
         <v>3</v>
       </c>
@@ -1112,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="2">
         <v>4</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="2">
         <v>5</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="2">
         <v>6</v>
       </c>
@@ -1136,7 +1157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="2">
         <v>7</v>
       </c>
@@ -1144,72 +1165,90 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="5">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="5">
+        <v>7</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="1">
-        <v>4</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="1">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="1">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
